--- a/RecursionProgramList/src/com/recursive/pratice/Question_Bank.xlsx
+++ b/RecursionProgramList/src/com/recursive/pratice/Question_Bank.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B31B5B36-32B1-43B8-9627-3FE6F6150817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ED8498BF-4499-4350-8894-AF0868758C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="1590" yWindow="2820" windowWidth="20760" windowHeight="11820" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="hidden" xWindow="1590" yWindow="2820" windowWidth="20790" windowHeight="11820" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="1" r:id="rId1"/>

--- a/RecursionProgramList/src/com/recursive/pratice/Question_Bank.xlsx
+++ b/RecursionProgramList/src/com/recursive/pratice/Question_Bank.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ED8498BF-4499-4350-8894-AF0868758C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BC3D8F33-06D6-441F-BCC0-F8A3A479ACB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="1590" yWindow="2820" windowWidth="20790" windowHeight="11820" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="hidden" xWindow="1170" yWindow="1170" windowWidth="20790" windowHeight="11820" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="1" r:id="rId1"/>
